--- a/Output Data/Merge Sort on Descending Array Results.xlsx
+++ b/Output Data/Merge Sort on Descending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>4932.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>199286.0</v>
+        <v>138560.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>10864.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>285244.0</v>
+        <v>282679.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>16828.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>560225.0</v>
+        <v>365215.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>23728.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>801849.0</v>
+        <v>478971.0</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>29804.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>1046039.0</v>
+        <v>626512.0</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>36656.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>1208975.0</v>
+        <v>750530.0</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>43628.0</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>1258582.0</v>
+        <v>844614.0</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>51456.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>1492509.0</v>
+        <v>1001135.0</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>57820.0</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>1677683.0</v>
+        <v>1098640.0</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>64608.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>2119448.0</v>
+        <v>1246608.0</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>71604.0</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1613962.0</v>
+        <v>1352239.0</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>79312.0</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>2390579.0</v>
+        <v>1478824.0</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>86580.0</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>2642895.0</v>
+        <v>1634061.0</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>94256.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>2855011.0</v>
+        <v>1733704.0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>102252.0</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>3338259.0</v>
+        <v>1930425.0</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>110912.0</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>3632483.0</v>
+        <v>2357651.0</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>118044.0</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>3834764.0</v>
+        <v>2216525.0</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>124640.0</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>3936545.0</v>
+        <v>2249027.0</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>131652.0</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>3841606.0</v>
+        <v>2375612.0</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>139216.0</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>4056287.0</v>
+        <v>2501342.0</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>146724.0</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>8167742.0</v>
+        <v>2665988.0</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>154208.0</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>3657715.0</v>
+        <v>2808824.0</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>162180.0</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>3922860.0</v>
+        <v>2931133.0</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>170624.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>4057998.0</v>
+        <v>3265985.0</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>178756.0</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>4233336.0</v>
+        <v>3338686.0</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>186160.0</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>4257712.0</v>
+        <v>3581593.0</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>194164.0</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>4434761.0</v>
+        <v>3517445.0</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>202512.0</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>4676812.0</v>
+        <v>3586297.0</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>211188.0</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>4973175.0</v>
+        <v>3719297.0</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>219504.0</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>4991565.0</v>
+        <v>5507314.0</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>228524.0</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>3978027.0</v>
+        <v>5748510.0</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>237824.0</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>5450864.0</v>
+        <v>4053294.0</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>246876.0</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>5546658.0</v>
+        <v>4185439.0</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>253088.0</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>5804105.0</v>
+        <v>4332979.0</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>260100.0</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>1.0497596E7</v>
+        <v>4532693.0</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>267280.0</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>6162478.0</v>
+        <v>4778166.0</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>275172.0</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>6204815.0</v>
+        <v>4755072.0</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>282304.0</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>6392128.0</v>
+        <v>5966614.0</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>290324.0</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>6926266.0</v>
+        <v>5133545.0</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>298432.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>6792411.0</v>
+        <v>6381864.0</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>307380.0</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>4961201.0</v>
+        <v>5392703.0</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>314448.0</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>7345366.0</v>
+        <v>5397407.0</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>322468.0</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>8016782.0</v>
+        <v>5709594.0</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>330416.0</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>1.0902155E7</v>
+        <v>5733542.0</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>339340.0</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>7603668.0</v>
+        <v>5987141.0</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>347360.0</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>7920986.0</v>
+        <v>6008523.0</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>356252.0</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>8037736.0</v>
+        <v>9197959.0</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>365248.0</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>8212646.0</v>
+        <v>6180439.0</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>375076.0</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>8385845.0</v>
+        <v>9391685.0</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>382512.0</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>8542794.0</v>
+        <v>7450997.0</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>390324.0</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>6066684.0</v>
+        <v>6810800.0</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>398320.0</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>1.241177E7</v>
+        <v>7115717.0</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>407100.0</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>9375862.0</v>
+        <v>7048575.0</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>415328.0</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>9589689.0</v>
+        <v>7072095.0</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>424028.0</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>1.1663805E7</v>
+        <v>7144369.0</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>433024.0</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>9454978.0</v>
+        <v>8447000.0</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>442684.0</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>9785553.0</v>
+        <v>7876511.0</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>451376.0</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>9891183.0</v>
+        <v>7641301.0</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>460012.0</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>1.0252551E7</v>
+        <v>7950067.0</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>469008.0</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>1.0050698E7</v>
+        <v>7865819.0</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>478596.0</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>7397540.0</v>
+        <v>7966318.0</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>488048.0</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>1.1038577E7</v>
+        <v>8526116.0</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>497604.0</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>1.1138219E7</v>
+        <v>9383132.0</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>507648.0</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>1.1394811E7</v>
+        <v>8617634.0</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>518092.0</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>1.1401226E7</v>
+        <v>8659544.0</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>526752.0</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>1.1269509E7</v>
+        <v>9809074.0</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>533180.0</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>1.1503862E7</v>
+        <v>9846280.0</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>540176.0</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>1.1656535E7</v>
+        <v>8943505.0</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>547572.0</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>1.1751046E7</v>
+        <v>1.0129387E7</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>555200.0</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>1.6370125E7</v>
+        <v>9407508.0</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>562540.0</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>8423052.0</v>
+        <v>9616631.0</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>570560.0</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>1.2082905E7</v>
+        <v>9732097.0</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>578860.0</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>1.2638426E7</v>
+        <v>9957469.0</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>587344.0</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>1.2781262E7</v>
+        <v>1.0003656E7</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>594612.0</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>1.2889459E7</v>
+        <v>1.3639988E7</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>602608.0</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>1.2946336E7</v>
+        <v>1.0047705E7</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>610812.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>1.3546761E7</v>
+        <v>1.0335943E7</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>619648.0</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>1.3272635E7</v>
+        <v>1.0531808E7</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>627820.0</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>1.5206054E7</v>
+        <v>1.1216052E7</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>636864.0</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>1.4331932E7</v>
+        <v>1.5983955E7</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>645972.0</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>1.015419E7</v>
+        <v>1.0926532E7</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>655760.0</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>1.4281896E7</v>
+        <v>1.0979988E7</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>662852.0</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>1.6260646E7</v>
+        <v>1.1253258E7</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>670896.0</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>1.4476906E7</v>
+        <v>1.1455538E7</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>678956.0</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>1.5085028E7</v>
+        <v>1.1769863E7</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>687936.0</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>1.5098713E7</v>
+        <v>1.1630449E7</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>695900.0</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>1.7050094E7</v>
+        <v>1.1476493E7</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>704832.0</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>1.4765144E7</v>
+        <v>1.1609066E7</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>713788.0</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>1.534162E7</v>
+        <v>1.1752756E7</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>723680.0</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>1.5473764E7</v>
+        <v>1.1876776E7</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>731884.0</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>1.0958605E7</v>
+        <v>1.2008066E7</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>740720.0</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>1.5788517E7</v>
+        <v>1.2552895E7</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>749700.0</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>1.5924083E7</v>
+        <v>1.3666503E7</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>759504.0</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>1.8740605E7</v>
+        <v>1.3237567E7</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>768708.0</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>1.7626569E7</v>
+        <v>1.3099864E7</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>778496.0</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>1.6995782E7</v>
+        <v>1.2717113E7</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>788452.0</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>1.8995059E7</v>
+        <v>1.2569573E7</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>799152.0</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>1.6828996E7</v>
+        <v>1.2652539E7</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>807356.0</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>1.6963707E7</v>
+        <v>1.3430011E7</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>815024.0</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>1.9254644E7</v>
+        <v>1.4622735E7</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Merge Sort on Descending Array Results.xlsx
+++ b/Output Data/Merge Sort on Descending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>4932.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>138560.0</v>
+        <v>134710.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>10864.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>282679.0</v>
+        <v>307055.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>16828.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>365215.0</v>
+        <v>366927.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>23728.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>478971.0</v>
+        <v>491801.0</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>29804.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>626512.0</v>
+        <v>584601.0</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>36656.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>750530.0</v>
+        <v>761223.0</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>43628.0</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>844614.0</v>
+        <v>839482.0</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>51456.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>1001135.0</v>
+        <v>959225.0</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>57820.0</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>1098640.0</v>
+        <v>1064001.0</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>64608.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>1246608.0</v>
+        <v>1236345.0</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>71604.0</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1352239.0</v>
+        <v>1352238.0</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>79312.0</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>1478824.0</v>
+        <v>1433065.0</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>86580.0</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>1634061.0</v>
+        <v>1603698.0</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>94256.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>1733704.0</v>
+        <v>1749100.0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>102252.0</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>1930425.0</v>
+        <v>2374328.0</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>110912.0</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>2357651.0</v>
+        <v>1976184.0</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>118044.0</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>2216525.0</v>
+        <v>2149811.0</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>124640.0</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>2249027.0</v>
+        <v>2225078.0</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>131652.0</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>2375612.0</v>
+        <v>2308042.0</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>139216.0</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>2501342.0</v>
+        <v>2487657.0</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>146724.0</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>2665988.0</v>
+        <v>2723721.0</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>154208.0</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>2808824.0</v>
+        <v>2682239.0</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>162180.0</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>2931133.0</v>
+        <v>3182165.0</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>170624.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>3265985.0</v>
+        <v>2993998.0</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>178756.0</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>3338686.0</v>
+        <v>3187297.0</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>186160.0</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>3581593.0</v>
+        <v>3259998.0</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>194164.0</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>3517445.0</v>
+        <v>3336975.0</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>202512.0</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>3586297.0</v>
+        <v>3519584.0</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>211188.0</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>3719297.0</v>
+        <v>3674394.0</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>219504.0</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>5507314.0</v>
+        <v>3705612.0</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>228524.0</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>5748510.0</v>
+        <v>4103757.0</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>237824.0</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>4053294.0</v>
+        <v>4120863.0</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>246876.0</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>4185439.0</v>
+        <v>4174747.0</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>253088.0</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>4332979.0</v>
+        <v>4305182.0</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>260100.0</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>4532693.0</v>
+        <v>4435616.0</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>267280.0</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>4778166.0</v>
+        <v>4821359.0</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>275172.0</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>4755072.0</v>
+        <v>4711024.0</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>282304.0</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>5966614.0</v>
+        <v>6449433.0</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>290324.0</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>5133545.0</v>
+        <v>5012092.0</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>298432.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>6381864.0</v>
+        <v>6155636.0</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>307380.0</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>5392703.0</v>
+        <v>5149369.0</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>314448.0</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>5397407.0</v>
+        <v>5396552.0</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>322468.0</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>5709594.0</v>
+        <v>5778018.0</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>330416.0</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>5733542.0</v>
+        <v>5496623.0</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>339340.0</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>5987141.0</v>
+        <v>5656992.0</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>347360.0</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>6008523.0</v>
+        <v>5784005.0</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>356252.0</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>9197959.0</v>
+        <v>6041024.0</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>365248.0</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>6180439.0</v>
+        <v>6989131.0</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>375076.0</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>9391685.0</v>
+        <v>6210803.0</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>382512.0</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>7450997.0</v>
+        <v>7572022.0</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>390324.0</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>6810800.0</v>
+        <v>6508449.0</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>398320.0</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>7115717.0</v>
+        <v>6544373.0</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>407100.0</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>7048575.0</v>
+        <v>6891198.0</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>415328.0</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>7072095.0</v>
+        <v>6918141.0</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>424028.0</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>7144369.0</v>
+        <v>7124269.0</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>433024.0</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>8447000.0</v>
+        <v>8367457.0</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>442684.0</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>7876511.0</v>
+        <v>8261826.0</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>451376.0</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>7641301.0</v>
+        <v>7335958.0</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>460012.0</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>7950067.0</v>
+        <v>7668244.0</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>469008.0</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>7865819.0</v>
+        <v>7649427.0</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>478596.0</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>7966318.0</v>
+        <v>8118135.0</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>488048.0</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>8526116.0</v>
+        <v>7881643.0</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>497604.0</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>9383132.0</v>
+        <v>9058543.0</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>507648.0</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>8617634.0</v>
+        <v>8202810.0</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>518092.0</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>8659544.0</v>
+        <v>8220772.0</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>526752.0</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>9809074.0</v>
+        <v>1.0144354E7</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>533180.0</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>9846280.0</v>
+        <v>1.0539933E7</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>540176.0</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>8943505.0</v>
+        <v>9125257.0</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>547572.0</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>1.0129387E7</v>
+        <v>1.0579705E7</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>555200.0</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>9407508.0</v>
+        <v>9236447.0</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>562540.0</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>9616631.0</v>
+        <v>9087196.0</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>570560.0</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>9732097.0</v>
+        <v>9230459.0</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>578860.0</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>9957469.0</v>
+        <v>9298457.0</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>587344.0</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>1.0003656E7</v>
+        <v>9432740.0</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>594612.0</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>1.3639988E7</v>
+        <v>1.1087329E7</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>602608.0</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>1.0047705E7</v>
+        <v>9724399.0</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>610812.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>1.0335943E7</v>
+        <v>9933522.0</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>619648.0</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>1.0531808E7</v>
+        <v>1.0267946E7</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>627820.0</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>1.1216052E7</v>
+        <v>1.0131524E7</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>636864.0</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>1.5983955E7</v>
+        <v>1.0167447E7</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>645972.0</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>1.0926532E7</v>
+        <v>1.0422756E7</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>655760.0</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>1.0979988E7</v>
+        <v>1.0640859E7</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>662852.0</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>1.1253258E7</v>
+        <v>1.0580988E7</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>670896.0</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>1.1455538E7</v>
+        <v>1.1728808E7</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>678956.0</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>1.1769863E7</v>
+        <v>1.1237007E7</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>687936.0</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>1.1630449E7</v>
+        <v>1.222232E7</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>695900.0</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>1.1476493E7</v>
+        <v>1.1123679E7</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>704832.0</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>1.1609066E7</v>
+        <v>1.1267799E7</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>713788.0</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>1.1752756E7</v>
+        <v>1.2875773E7</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>723680.0</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>1.1876776E7</v>
+        <v>1.3137925E7</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>731884.0</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>1.2008066E7</v>
+        <v>1.306052E7</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>740720.0</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>1.2552895E7</v>
+        <v>1.1944773E7</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>749700.0</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>1.3666503E7</v>
+        <v>1.2028165E7</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>759504.0</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>1.3237567E7</v>
+        <v>1.2026027E7</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>768708.0</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>1.3099864E7</v>
+        <v>1.257214E7</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>778496.0</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>1.2717113E7</v>
+        <v>1.2331799E7</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>788452.0</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>1.2569573E7</v>
+        <v>1.4480327E7</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>799152.0</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>1.2652539E7</v>
+        <v>1.286551E7</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>807356.0</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>1.3430011E7</v>
+        <v>1.2808631E7</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>815024.0</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>1.4622735E7</v>
+        <v>1.2930086E7</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Merge Sort on Descending Array Results.xlsx
+++ b/Output Data/Merge Sort on Descending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>4932.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>134710.0</v>
+        <v>153528.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>10864.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>307055.0</v>
+        <v>285245.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>16828.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>366927.0</v>
+        <v>368209.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>23728.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>491801.0</v>
+        <v>463575.0</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>29804.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>584601.0</v>
+        <v>601707.0</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>36656.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>761223.0</v>
+        <v>706055.0</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>43628.0</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>839482.0</v>
+        <v>871984.0</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>51456.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>959225.0</v>
+        <v>980609.0</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>57820.0</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>1064001.0</v>
+        <v>1090088.0</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>64608.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>1236345.0</v>
+        <v>1270557.0</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>71604.0</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1352238.0</v>
+        <v>3108609.0</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>79312.0</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>1433065.0</v>
+        <v>1448888.0</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>86580.0</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>1603698.0</v>
+        <v>1643898.0</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>94256.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>1749100.0</v>
+        <v>1746534.0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>102252.0</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>2374328.0</v>
+        <v>1890226.0</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>110912.0</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>1976184.0</v>
+        <v>1951380.0</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>118044.0</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>2149811.0</v>
+        <v>2312319.0</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>124640.0</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>2225078.0</v>
+        <v>2336695.0</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>131652.0</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>2308042.0</v>
+        <v>2365348.0</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>139216.0</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>2487657.0</v>
+        <v>4330413.0</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>146724.0</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>2723721.0</v>
+        <v>2681384.0</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>154208.0</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>2682239.0</v>
+        <v>2825930.0</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>162180.0</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>3182165.0</v>
+        <v>2938403.0</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>170624.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>2993998.0</v>
+        <v>3031204.0</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>178756.0</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>3187297.0</v>
+        <v>3200554.0</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>186160.0</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>3259998.0</v>
+        <v>3469976.0</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>194164.0</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>3336975.0</v>
+        <v>3484088.0</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>202512.0</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>3519584.0</v>
+        <v>3616660.0</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>211188.0</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>3674394.0</v>
+        <v>3919867.0</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>219504.0</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>3705612.0</v>
+        <v>3832197.0</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>228524.0</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>4103757.0</v>
+        <v>3956645.0</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>237824.0</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>4120863.0</v>
+        <v>4120008.0</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>246876.0</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>4174747.0</v>
+        <v>4125567.0</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>253088.0</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>4305182.0</v>
+        <v>4394562.0</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>260100.0</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>4435616.0</v>
+        <v>4538252.0</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>267280.0</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>4821359.0</v>
+        <v>5064266.0</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>275172.0</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>4711024.0</v>
+        <v>4789284.0</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>282304.0</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>6449433.0</v>
+        <v>6589703.0</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>290324.0</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>5012092.0</v>
+        <v>5062555.0</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>298432.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>6155636.0</v>
+        <v>5389281.0</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>307380.0</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>5149369.0</v>
+        <v>5206674.0</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>314448.0</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>5396552.0</v>
+        <v>5616793.0</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>322468.0</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>5778018.0</v>
+        <v>5654854.0</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>330416.0</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>5496623.0</v>
+        <v>5749365.0</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>339340.0</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>5656992.0</v>
+        <v>5842167.0</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>347360.0</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>5784005.0</v>
+        <v>6005530.0</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>356252.0</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>6041024.0</v>
+        <v>7541231.0</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>365248.0</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>6989131.0</v>
+        <v>6293339.0</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>375076.0</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>6210803.0</v>
+        <v>6292057.0</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>382512.0</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>7572022.0</v>
+        <v>8317421.0</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>390324.0</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>6508449.0</v>
+        <v>8370878.0</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>398320.0</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>6544373.0</v>
+        <v>6834749.0</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>407100.0</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>6891198.0</v>
+        <v>6963044.0</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>415328.0</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>6918141.0</v>
+        <v>6933108.0</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>424028.0</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>7124269.0</v>
+        <v>9298457.0</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>433024.0</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>8367457.0</v>
+        <v>9020482.0</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>442684.0</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>8261826.0</v>
+        <v>7717852.0</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>451376.0</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>7335958.0</v>
+        <v>7720845.0</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>460012.0</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>7668244.0</v>
+        <v>8004807.0</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>469008.0</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>7649427.0</v>
+        <v>8046289.0</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>478596.0</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>8118135.0</v>
+        <v>7906019.0</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>488048.0</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>7881643.0</v>
+        <v>9516132.0</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>497604.0</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>9058543.0</v>
+        <v>8080074.0</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>507648.0</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>8202810.0</v>
+        <v>1.0055403E7</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>518092.0</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>8220772.0</v>
+        <v>1.0081917E7</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>526752.0</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>1.0144354E7</v>
+        <v>8829749.0</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>533180.0</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>1.0539933E7</v>
+        <v>1.0806788E7</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>540176.0</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>9125257.0</v>
+        <v>8828466.0</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>547572.0</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>1.0579705E7</v>
+        <v>9018344.0</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>555200.0</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>9236447.0</v>
+        <v>9037161.0</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>562540.0</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>9087196.0</v>
+        <v>1.1068512E7</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>570560.0</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>9230459.0</v>
+        <v>1.1444419E7</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>578860.0</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>9298457.0</v>
+        <v>9691470.0</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>587344.0</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>9432740.0</v>
+        <v>1.1582551E7</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>594612.0</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>1.1087329E7</v>
+        <v>9731669.0</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>602608.0</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>9724399.0</v>
+        <v>9915560.0</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>610812.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>9933522.0</v>
+        <v>1.0054975E7</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>619648.0</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>1.0267946E7</v>
+        <v>1.0358181E7</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>627820.0</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>1.0131524E7</v>
+        <v>1.2549047E7</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>636864.0</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>1.0167447E7</v>
+        <v>1.215475E7</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>645972.0</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>1.0422756E7</v>
+        <v>1.231512E7</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>655760.0</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>1.0640859E7</v>
+        <v>1.2402362E7</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>662852.0</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>1.0580988E7</v>
+        <v>1.2511413E7</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>670896.0</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>1.1728808E7</v>
+        <v>1.2751326E7</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>678956.0</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>1.1237007E7</v>
+        <v>1.1729236E7</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>687936.0</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>1.222232E7</v>
+        <v>1.1882763E7</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>695900.0</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>1.1123679E7</v>
+        <v>1.2272356E7</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>704832.0</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>1.1267799E7</v>
+        <v>1.1411062E7</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>713788.0</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>1.2875773E7</v>
+        <v>1.2028165E7</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>723680.0</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>1.3137925E7</v>
+        <v>1.1737361E7</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>731884.0</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>1.306052E7</v>
+        <v>1.2358313E7</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>740720.0</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>1.1944773E7</v>
+        <v>1.4619315E7</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>749700.0</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>1.2028165E7</v>
+        <v>1.4436706E7</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>759504.0</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>1.2026027E7</v>
+        <v>1.2820606E7</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>768708.0</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>1.257214E7</v>
+        <v>1.4555166E7</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>778496.0</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>1.2331799E7</v>
+        <v>1.3852532E7</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>788452.0</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>1.4480327E7</v>
+        <v>1.5292868E7</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>799152.0</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>1.286551E7</v>
+        <v>1.5313823E7</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>807356.0</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>1.2808631E7</v>
+        <v>1.5012327E7</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>815024.0</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>1.2930086E7</v>
+        <v>1.5225726E7</v>
       </c>
     </row>
   </sheetData>
